--- a/prueba.xlsx
+++ b/prueba.xlsx
@@ -514,7 +514,7 @@
         <v>B</v>
       </c>
       <c r="F5" t="str">
-        <v>TOYOTA</v>
+        <v>JOJO</v>
       </c>
       <c r="G5" t="str">
         <v>ETIOS XLS 1.5 M/T</v>
@@ -537,7 +537,7 @@
         <v>B</v>
       </c>
       <c r="F6" t="str">
-        <v>TOYOTA</v>
+        <v>JIJI</v>
       </c>
       <c r="G6" t="str">
         <v>ETIOS XLS 1.5 M/T</v>
@@ -563,6 +563,29 @@
         <v>TITO</v>
       </c>
       <c r="G7" t="str">
+        <v>ETIOS XLS 1.5 M/T</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>54D4DA</v>
+      </c>
+      <c r="B8" t="str">
+        <v>5493757000000</v>
+      </c>
+      <c r="C8" t="str">
+        <v>12/20/24</v>
+      </c>
+      <c r="D8" t="str">
+        <v>07/12/25</v>
+      </c>
+      <c r="E8" t="str">
+        <v>E</v>
+      </c>
+      <c r="F8" t="str">
+        <v>TITOB</v>
+      </c>
+      <c r="G8" t="str">
         <v>ETIOS XLS 1.5 M/T</v>
       </c>
     </row>
